--- a/src/test/resources/testDataFiles/SystemsAndUsers.xlsx
+++ b/src/test/resources/testDataFiles/SystemsAndUsers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7325\git\MV_Selenium_Using_Shaft_Engine\src\test\resources\testDataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7325\Sample_Project_Using_Shaft_Engine\MV_WebApp_New_Syntax\src\test\resources\testDataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B6515E-A197-4ECF-868B-5169A0573894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09767AEB-F0B4-4581-84F5-6BE2FBCBE558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13935" yWindow="-16320" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{03FC4212-94A5-469D-A671-9E7C5391517C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{03FC4212-94A5-469D-A671-9E7C5391517C}"/>
   </bookViews>
   <sheets>
     <sheet name="Systems_EK1" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
   <si>
     <t>Rolle</t>
   </si>
@@ -101,18 +101,9 @@
     <t>KOmelsayed2</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>MV</t>
   </si>
   <si>
-    <t>MV1.toll-collect.de</t>
-  </si>
-  <si>
     <t>KO</t>
   </si>
   <si>
@@ -159,6 +150,21 @@
   </si>
   <si>
     <t>Regnutzer2</t>
+  </si>
+  <si>
+    <t>MV2.toll-collect.de</t>
+  </si>
+  <si>
+    <t>KO2.toll-collect.de</t>
+  </si>
+  <si>
+    <t>IntP2.toll-collect.de</t>
+  </si>
+  <si>
+    <t>Systemart</t>
+  </si>
+  <si>
+    <t>URL</t>
   </si>
 </sst>
 </file>
@@ -228,8 +234,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7A5B18B2-B743-4C47-90A6-D0CD66F4A252}" name="Table1" displayName="Table1" ref="A1:D5" totalsRowShown="0">
   <autoFilter ref="A1:D5" xr:uid="{7A5B18B2-B743-4C47-90A6-D0CD66F4A252}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{357DACC8-BA6A-468A-AA96-18324D57E147}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{492D45E7-86F0-4AA9-9E96-C1EF137E1C2A}" name="Name"/>
+    <tableColumn id="1" xr3:uid="{357DACC8-BA6A-468A-AA96-18324D57E147}" name="Systemart"/>
+    <tableColumn id="2" xr3:uid="{492D45E7-86F0-4AA9-9E96-C1EF137E1C2A}" name="URL"/>
     <tableColumn id="3" xr3:uid="{FA61A1DD-F6EC-4D6C-99B3-3E72DC369378}" name="Mandant"/>
     <tableColumn id="4" xr3:uid="{9DC41294-3851-4F67-8145-775C8BFADA39}" name="SID"/>
   </tableColumns>
@@ -241,8 +247,8 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E9D9E5DB-CD82-46C6-9911-2F09779E5C1E}" name="Table15" displayName="Table15" ref="A1:D5" totalsRowShown="0">
   <autoFilter ref="A1:D5" xr:uid="{E9D9E5DB-CD82-46C6-9911-2F09779E5C1E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{FEB42DE0-2AF6-426A-A448-AAB18D67A572}" name="Type"/>
-    <tableColumn id="2" xr3:uid="{A647C6E0-6CFF-4FDA-9078-5DEF845C0386}" name="Name"/>
+    <tableColumn id="1" xr3:uid="{FEB42DE0-2AF6-426A-A448-AAB18D67A572}" name="Systemart"/>
+    <tableColumn id="2" xr3:uid="{A647C6E0-6CFF-4FDA-9078-5DEF845C0386}" name="URL"/>
     <tableColumn id="3" xr3:uid="{9B627E42-4B49-41D8-BAEB-F2E0BCE3DE2C}" name="Mandant"/>
     <tableColumn id="4" xr3:uid="{35E43DA4-9C57-4E08-934B-B25A2C5B2703}" name="SID"/>
   </tableColumns>
@@ -562,66 +568,66 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="47.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5">
         <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -639,7 +645,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB8C628-1FC8-40CE-8645-15BEAD745F54}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -650,54 +658,54 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
       <c r="C1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
         <v>30</v>
-      </c>
-      <c r="B5" t="s">
-        <v>33</v>
       </c>
       <c r="C5">
         <v>100</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -795,18 +803,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>

--- a/src/test/resources/testDataFiles/SystemsAndUsers.xlsx
+++ b/src/test/resources/testDataFiles/SystemsAndUsers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7325\Sample_Project_Using_Shaft_Engine\MV_WebApp_New_Syntax\src\test\resources\testDataFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7325\Desktop\Selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09767AEB-F0B4-4581-84F5-6BE2FBCBE558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6EA656-3457-4458-B528-33B33C59AA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{03FC4212-94A5-469D-A671-9E7C5391517C}"/>
+    <workbookView xWindow="13935" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{03FC4212-94A5-469D-A671-9E7C5391517C}"/>
   </bookViews>
   <sheets>
     <sheet name="Systems_EK1" sheetId="6" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="43">
   <si>
     <t>Rolle</t>
   </si>
@@ -165,6 +165,9 @@
   </si>
   <si>
     <t>URL</t>
+  </si>
+  <si>
+    <t>Mandant100</t>
   </si>
 </sst>
 </file>
@@ -209,15 +212,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -231,13 +254,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7A5B18B2-B743-4C47-90A6-D0CD66F4A252}" name="Table1" displayName="Table1" ref="A1:D5" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{7A5B18B2-B743-4C47-90A6-D0CD66F4A252}" name="Table1" displayName="Table1" ref="A1:D5" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:D5" xr:uid="{7A5B18B2-B743-4C47-90A6-D0CD66F4A252}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{357DACC8-BA6A-468A-AA96-18324D57E147}" name="Systemart"/>
-    <tableColumn id="2" xr3:uid="{492D45E7-86F0-4AA9-9E96-C1EF137E1C2A}" name="URL"/>
-    <tableColumn id="3" xr3:uid="{FA61A1DD-F6EC-4D6C-99B3-3E72DC369378}" name="Mandant"/>
-    <tableColumn id="4" xr3:uid="{9DC41294-3851-4F67-8145-775C8BFADA39}" name="SID"/>
+    <tableColumn id="1" xr3:uid="{357DACC8-BA6A-468A-AA96-18324D57E147}" name="Systemart" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{492D45E7-86F0-4AA9-9E96-C1EF137E1C2A}" name="URL" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{FA61A1DD-F6EC-4D6C-99B3-3E72DC369378}" name="Mandant" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{9DC41294-3851-4F67-8145-775C8BFADA39}" name="SID" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -567,66 +590,67 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{266E602C-D9D7-4933-83D1-67EFFDB8E6DE}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="50.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="50.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C5">
-        <v>100</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>29</v>
       </c>
     </row>
@@ -781,7 +805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ADA1616-6E8B-4370-BA1C-1B32E27B4395}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/src/test/resources/testDataFiles/SystemsAndUsers.xlsx
+++ b/src/test/resources/testDataFiles/SystemsAndUsers.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7325\Desktop\Selenium\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\7325\Sample_Project_Using_Shaft_Engine\MV_WebApp_New_Syntax\src\test\resources\testDataFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB6EA656-3457-4458-B528-33B33C59AA32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CCD2EA2-D6F4-42F5-8E73-178CDC89E641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13935" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{03FC4212-94A5-469D-A671-9E7C5391517C}"/>
   </bookViews>
@@ -137,9 +137,6 @@
     <t>EAS</t>
   </si>
   <si>
-    <t>https://www.maut.toll-collect.de/ui/web/#/home</t>
-  </si>
-  <si>
     <t>melsayedtest</t>
   </si>
   <si>
@@ -168,6 +165,9 @@
   </si>
   <si>
     <t>Mandant100</t>
+  </si>
+  <si>
+    <t>https://www.maut.toll-collect.de</t>
   </si>
 </sst>
 </file>
@@ -591,7 +591,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -604,10 +604,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>25</v>
@@ -621,7 +621,7 @@
         <v>20</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -648,7 +648,7 @@
         <v>28</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>29</v>
@@ -656,7 +656,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="/home" xr:uid="{3F9355BC-253D-4062-82EE-0518BD386DF2}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{3F9355BC-253D-4062-82EE-0518BD386DF2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -682,10 +682,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" t="s">
-        <v>41</v>
       </c>
       <c r="C1" t="s">
         <v>25</v>
@@ -699,7 +699,7 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -707,7 +707,7 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -715,7 +715,7 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -827,18 +827,18 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
         <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
